--- a/warehouse/group/handler/THEME.xlsx
+++ b/warehouse/group/handler/THEME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5707692dd86f11a/프로그래밍/Back-End/Storage/files/category/src(manual)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5707692dd86f11a/프로그래밍/Back-End/marketport/warehouse/group/handler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{DA1BCE7D-0C35-41F9-838D-1A366E16FB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5940B582-F820-492D-B329-3814D078390E}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{DA1BCE7D-0C35-41F9-838D-1A366E16FB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A41A8105-8A09-407B-8ABC-82959CBFD4D4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D527B03-0ED5-484F-B723-3C5E035453AC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="309">
   <si>
     <t>넷마블</t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>원익피앤이</t>
-  </si>
-  <si>
-    <t>동화기업</t>
   </si>
   <si>
     <t>율촌화학</t>
@@ -355,10 +352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미디어엔터테인먼트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여행레저</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -385,18 +378,12 @@
     <t>LG유플러스</t>
   </si>
   <si>
-    <t>기업은행</t>
-  </si>
-  <si>
     <t>DB손해보험</t>
   </si>
   <si>
     <t>BNK금융지주</t>
   </si>
   <si>
-    <t>제일기획</t>
-  </si>
-  <si>
     <t>현대해상</t>
   </si>
   <si>
@@ -461,9 +448,6 @@
   </si>
   <si>
     <t>한화시스템</t>
-  </si>
-  <si>
-    <t>에스원</t>
   </si>
   <si>
     <t>LS ELECTRIC</t>
@@ -576,24 +560,6 @@
     <t>KEC</t>
   </si>
   <si>
-    <t>NH투자증권</t>
-  </si>
-  <si>
-    <t>이마트</t>
-  </si>
-  <si>
-    <t>우리금융지주</t>
-  </si>
-  <si>
-    <t>신한지주</t>
-  </si>
-  <si>
-    <t>삼성증권</t>
-  </si>
-  <si>
-    <t>SK케미칼</t>
-  </si>
-  <si>
     <t>LG전자</t>
   </si>
   <si>
@@ -735,9 +701,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>더존비즈온</t>
-  </si>
-  <si>
     <t>섹터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -781,94 +744,22 @@
     <t>티웨이항공</t>
   </si>
   <si>
-    <t>한국전력</t>
-  </si>
-  <si>
-    <t>LG디스플레이</t>
-  </si>
-  <si>
     <t>고려아연</t>
   </si>
   <si>
     <t>현대제철</t>
   </si>
   <si>
-    <t>S-Oil</t>
-  </si>
-  <si>
-    <t>현대건설</t>
-  </si>
-  <si>
-    <t>현대중공업지주</t>
-  </si>
-  <si>
-    <t>삼성중공업</t>
-  </si>
-  <si>
-    <t>GS건설</t>
-  </si>
-  <si>
-    <t>DL이앤씨</t>
-  </si>
-  <si>
     <t>롯데케미칼</t>
   </si>
   <si>
-    <t>HMM</t>
-  </si>
-  <si>
-    <t>삼성전기</t>
-  </si>
-  <si>
-    <t>두산중공업</t>
-  </si>
-  <si>
     <t>코웨이</t>
-  </si>
-  <si>
-    <t>SK바이오사이언스</t>
-  </si>
-  <si>
-    <t>금호석유</t>
-  </si>
-  <si>
-    <t>삼성엔지니어링</t>
-  </si>
-  <si>
-    <t>에이치엘비</t>
-  </si>
-  <si>
-    <t>오리온</t>
-  </si>
-  <si>
-    <t>휠라홀딩스</t>
-  </si>
-  <si>
-    <t>두산밥캣</t>
-  </si>
-  <si>
-    <t>에스디바이오센서</t>
-  </si>
-  <si>
-    <t>신풍제약</t>
-  </si>
-  <si>
-    <t>제넥신</t>
-  </si>
-  <si>
-    <t>녹십자</t>
   </si>
   <si>
     <t>배당</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대형가치</t>
-  </si>
-  <si>
-    <t>대형성장</t>
-  </si>
-  <si>
     <t>해성디에스</t>
   </si>
   <si>
@@ -913,10 +804,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WISE INDEX &gt; Wise Style Index &gt; WMI500 Style</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WISE INDEX &gt; Wise Strategy Index &gt; 배당</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -965,12 +852,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>크래프톤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게임</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노랑풍선</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>미디어컨텐츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크래프톤</t>
+  </si>
+  <si>
+    <t>미스터블루</t>
+  </si>
+  <si>
+    <t>신성델타테크</t>
+  </si>
+  <si>
+    <t>제노코</t>
+  </si>
+  <si>
+    <t>덕산하이메탈</t>
+  </si>
+  <si>
+    <t>LIG넥스원</t>
+  </si>
+  <si>
+    <t>에스에프에이</t>
+  </si>
+  <si>
+    <t>비츠로테크</t>
+  </si>
+  <si>
+    <t>세원이앤씨</t>
+  </si>
+  <si>
+    <t>한양디지텍</t>
+  </si>
+  <si>
+    <t>한국항공우주</t>
+  </si>
+  <si>
+    <t>한양이엔지</t>
+  </si>
+  <si>
+    <t>쎄트렉아이</t>
+  </si>
+  <si>
+    <t>한화</t>
+  </si>
+  <si>
+    <t>한화에어로스페이스</t>
+  </si>
+  <si>
+    <t>AP위성</t>
+  </si>
+  <si>
+    <t>태웅</t>
+  </si>
+  <si>
+    <t>퍼스텍</t>
+  </si>
+  <si>
+    <t>현대로템</t>
+  </si>
+  <si>
+    <t>켄코아에어로스페이스</t>
+  </si>
+  <si>
+    <t>인텔리안테크</t>
+  </si>
+  <si>
+    <t>서남</t>
+  </si>
+  <si>
+    <t>이수페타시스</t>
+  </si>
+  <si>
+    <t>우주항공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>한화솔루션</t>
+  </si>
+  <si>
+    <t>두산퓨얼셀</t>
+  </si>
+  <si>
+    <t>효성첨단소재</t>
+  </si>
+  <si>
+    <t>일진하이솔루스</t>
+  </si>
+  <si>
+    <t>코오롱인더</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>효성화학</t>
+  </si>
+  <si>
+    <t>코웰패션</t>
+  </si>
+  <si>
+    <t>삼양사</t>
+  </si>
+  <si>
+    <t>효성중공업</t>
+  </si>
+  <si>
+    <t>수소차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG이노텍</t>
+  </si>
+  <si>
+    <t>디어유</t>
+  </si>
+  <si>
+    <t>엔피</t>
+  </si>
+  <si>
+    <t>이랜텍</t>
+  </si>
+  <si>
+    <t>에디슨EV</t>
   </si>
 </sst>
 </file>
@@ -2797,10 +2815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6B5691-B97C-475B-8732-04BA6E542DCA}">
-  <dimension ref="A1:C345"/>
+  <dimension ref="A1:C312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="B212" sqref="B212:C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2811,24 +2829,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2836,21 +2854,21 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2858,43 +2876,43 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>268</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -2902,285 +2920,285 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>235</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>223</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="C30" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -3188,65 +3206,65 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -3254,43 +3272,43 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C42" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C43" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -3298,32 +3316,32 @@
         <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C45" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C47" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -3331,21 +3349,21 @@
         <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C49" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -3353,21 +3371,21 @@
         <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>270</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -3375,54 +3393,54 @@
         <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>239</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C53" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C54" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C55" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C56" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -3430,219 +3448,219 @@
         <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C57" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C59" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C60" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C61" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C62" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B63" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C63" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C64" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C65" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C66" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C67" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C68" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C69" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>240</v>
+        <v>59</v>
       </c>
       <c r="B70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C70" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="B71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C71" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>241</v>
+        <v>62</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>64</v>
+        <v>229</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C74" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C75" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C76" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -3650,318 +3668,318 @@
         <v>66</v>
       </c>
       <c r="B77" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C77" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B78" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C78" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B79" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="C79" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="C80" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B81" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="C81" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B82" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="C82" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B83" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="C83" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B84" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="C84" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B85" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="C85" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B86" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="C86" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B87" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="C87" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>242</v>
+        <v>75</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="C88" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B89" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="C89" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="B90" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="C90" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>83</v>
+        <v>230</v>
       </c>
       <c r="B91" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="C91" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B92" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="C92" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B93" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="C93" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B94" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="C94" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B95" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="C95" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B96" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="C96" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="B97" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="C97" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="B98" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="C98" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C99" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="B100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B101" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -3969,10 +3987,10 @@
         <v>91</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C106" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -3980,98 +3998,98 @@
         <v>93</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C107" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C108" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B109" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C109" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B110" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C110" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B111" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C111" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B112" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C112" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>97</v>
+        <v>231</v>
       </c>
       <c r="B113" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C113" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B114" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C114" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="B115" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C115" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -4079,21 +4097,21 @@
         <v>100</v>
       </c>
       <c r="B116" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C116" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>106</v>
+        <v>236</v>
       </c>
       <c r="C117" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -4101,362 +4119,362 @@
         <v>109</v>
       </c>
       <c r="B118" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C118" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C119" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C120" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C121" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C122" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C123" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B124" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C124" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>244</v>
+        <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C125" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="B126" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C126" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B127" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C127" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>231</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C128" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>245</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C129" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c r="B130" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C130" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B131" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C131" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>247</v>
+        <v>89</v>
       </c>
       <c r="B132" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C132" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B133" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C133" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>248</v>
+        <v>129</v>
       </c>
       <c r="B134" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C134" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="B135" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C135" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>249</v>
+        <v>116</v>
       </c>
       <c r="B136" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C136" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B137" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C137" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="B138" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C138" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>250</v>
+        <v>131</v>
       </c>
       <c r="B139" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C139" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B140" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C140" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B141" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C141" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
+        <v>132</v>
+      </c>
+      <c r="B142" t="s">
+        <v>236</v>
+      </c>
+      <c r="C142" t="s">
         <v>251</v>
-      </c>
-      <c r="B142" t="s">
-        <v>271</v>
-      </c>
-      <c r="C142" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>252</v>
+        <v>134</v>
       </c>
       <c r="B143" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C143" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="B144" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C144" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>253</v>
+        <v>114</v>
       </c>
       <c r="B145" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C145" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B146" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C146" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="B147" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="C147" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="C148" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="B149" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="C149" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B150" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C150" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -4464,2144 +4482,1781 @@
         <v>147</v>
       </c>
       <c r="B151" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C151" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="B152" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C152" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="B153" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C153" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="B154" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C154" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="B155" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C155" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="B156" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C156" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="B157" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C157" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="B158" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C158" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="B159" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C159" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="B160" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C160" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>227</v>
+        <v>154</v>
       </c>
       <c r="B161" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C161" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>256</v>
+        <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C162" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="B163" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C163" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="B164" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C164" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>257</v>
+        <v>158</v>
       </c>
       <c r="B165" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C165" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="B166" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C166" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="B167" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C167" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="B168" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C168" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>259</v>
+        <v>165</v>
       </c>
       <c r="B169" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C169" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C170" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>260</v>
+        <v>161</v>
       </c>
       <c r="B171" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C171" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>261</v>
+        <v>166</v>
       </c>
       <c r="B172" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C172" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="B173" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C173" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="B174" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C174" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="B175" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C175" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>262</v>
+        <v>159</v>
       </c>
       <c r="B176" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C176" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="B177" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C177" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="B178" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C178" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="B179" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C179" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="B180" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C180" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="B181" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C181" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="B182" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C182" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="B183" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C183" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="B184" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C184" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="B185" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C185" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="B186" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C186" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="B187" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C187" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="B188" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C188" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="B189" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="C189" t="s">
-        <v>287</v>
+        <v>189</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="B190" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="C190" t="s">
-        <v>287</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>268</v>
+        <v>196</v>
       </c>
       <c r="B191" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="C191" t="s">
-        <v>287</v>
+        <v>189</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="B192" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="C192" t="s">
-        <v>287</v>
+        <v>189</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>269</v>
+        <v>129</v>
       </c>
       <c r="B193" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="C193" t="s">
-        <v>287</v>
+        <v>189</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="B194" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="C194" t="s">
-        <v>287</v>
+        <v>189</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="B195" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="C195" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B196" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="C196" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B197" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="C197" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="B198" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="C198" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="B199" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="C199" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="C200" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="B201" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="C201" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="C202" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="B203" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="C203" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="B204" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="B206" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="C206" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="B207" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="C207" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>246</v>
+        <v>171</v>
       </c>
       <c r="B208" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="C208" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>258</v>
+        <v>202</v>
       </c>
       <c r="B209" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="C209" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="B210" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="C210" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="B211" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="C211" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>133</v>
+        <v>308</v>
       </c>
       <c r="B212" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="C212" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>113</v>
+        <v>259</v>
       </c>
       <c r="B213" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="C213" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="B214" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="C214" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="B215" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>115</v>
+        <v>262</v>
       </c>
       <c r="B216" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>135</v>
+        <v>263</v>
       </c>
       <c r="B217" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="C217" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>116</v>
+        <v>213</v>
       </c>
       <c r="B218" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="C218" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="B219" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="C219" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="B220" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="C220" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="B221" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="C221" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="B222" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="C222" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="B223" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="C223" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>119</v>
+        <v>210</v>
       </c>
       <c r="B224" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="C224" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="B225" t="s">
-        <v>285</v>
+        <v>217</v>
       </c>
       <c r="C225" t="s">
-        <v>289</v>
+        <v>189</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="B226" t="s">
-        <v>285</v>
+        <v>217</v>
       </c>
       <c r="C226" t="s">
-        <v>289</v>
+        <v>189</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="B227" t="s">
-        <v>285</v>
+        <v>217</v>
       </c>
       <c r="C227" t="s">
-        <v>289</v>
+        <v>189</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="B228" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C228" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="B229" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C229" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="B230" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C230" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="B231" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C231" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="B232" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C232" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B233" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C233" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="B234" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C234" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="B235" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C235" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B236" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C236" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="B237" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C237" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="B238" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C238" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="B239" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C239" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="B240" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C240" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="B241" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C241" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B242" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C242" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="B243" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C243" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>273</v>
+        <v>118</v>
       </c>
       <c r="B244" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C244" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B245" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C245" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B246" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C246" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B247" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C247" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B248" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C248" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="B249" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="C249" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="B250" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="C250" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="B251" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="C251" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>274</v>
+        <v>121</v>
       </c>
       <c r="B252" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="C252" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>275</v>
+        <v>108</v>
       </c>
       <c r="B253" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="C253" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>164</v>
+        <v>2</v>
       </c>
       <c r="B254" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="C254" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="B255" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="C255" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>169</v>
+        <v>304</v>
       </c>
       <c r="B256" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="B257" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="C257" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>276</v>
+        <v>68</v>
       </c>
       <c r="B258" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="C258" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="B259" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="C259" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="B260" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="C260" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="B261" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="C261" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="B262" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="C262" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>281</v>
+        <v>10</v>
       </c>
       <c r="B263" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="C263" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>282</v>
+        <v>220</v>
       </c>
       <c r="B264" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="C264" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="B265" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="C265" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="B266" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="C266" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="B267" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="C267" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="B268" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="C268" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="B269" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="C269" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>183</v>
+        <v>307</v>
       </c>
       <c r="B270" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="C270" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>133</v>
+        <v>256</v>
       </c>
       <c r="B271" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="C271" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="C272" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="C273" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="C274" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>141</v>
+        <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="C275" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>206</v>
+        <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="C276" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>201</v>
+        <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="C277" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>211</v>
+        <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="C278" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="C279" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>212</v>
+        <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="C280" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="B281" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="C281" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>203</v>
+        <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="C282" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="C283" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="B284" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="C284" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>214</v>
+        <v>282</v>
       </c>
       <c r="B285" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="C285" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>176</v>
+        <v>283</v>
       </c>
       <c r="B286" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="C286" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>213</v>
+        <v>284</v>
       </c>
       <c r="B287" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="C287" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>204</v>
+        <v>285</v>
       </c>
       <c r="B288" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="C288" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>216</v>
+        <v>286</v>
       </c>
       <c r="B289" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B290" t="s">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="C290" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B291" t="s">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="C291" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B292" t="s">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="C292" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B293" t="s">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="C293" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>300</v>
+        <v>121</v>
       </c>
       <c r="B294" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="C294" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>224</v>
+        <v>123</v>
       </c>
       <c r="B295" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="C295" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="B296" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="C296" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="B297" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="C297" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="B298" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="C298" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>220</v>
+        <v>293</v>
       </c>
       <c r="B299" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="C299" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B300" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="C300" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>221</v>
+        <v>294</v>
       </c>
       <c r="B301" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="C301" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>227</v>
+        <v>295</v>
       </c>
       <c r="B302" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>222</v>
+        <v>296</v>
       </c>
       <c r="B303" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="C303" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="B304" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="C304" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>183</v>
+        <v>297</v>
       </c>
       <c r="B305" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C305" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>110</v>
+        <v>298</v>
       </c>
       <c r="B306" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C306" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="B307" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C307" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>113</v>
+        <v>299</v>
       </c>
       <c r="B308" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C308" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>189</v>
+        <v>300</v>
       </c>
       <c r="B309" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C309" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
       <c r="B310" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C310" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>191</v>
+        <v>301</v>
       </c>
       <c r="B311" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C311" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>195</v>
+        <v>302</v>
       </c>
       <c r="B312" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C312" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
-        <v>184</v>
-      </c>
-      <c r="B313" t="s">
-        <v>290</v>
-      </c>
-      <c r="C313" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
-        <v>188</v>
-      </c>
-      <c r="B314" t="s">
-        <v>290</v>
-      </c>
-      <c r="C314" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
-        <v>194</v>
-      </c>
-      <c r="B315" t="s">
-        <v>290</v>
-      </c>
-      <c r="C315" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
-        <v>192</v>
-      </c>
-      <c r="B316" t="s">
-        <v>290</v>
-      </c>
-      <c r="C316" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
-        <v>198</v>
-      </c>
-      <c r="B317" t="s">
-        <v>290</v>
-      </c>
-      <c r="C317" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
-        <v>199</v>
-      </c>
-      <c r="B318" t="s">
-        <v>290</v>
-      </c>
-      <c r="C318" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
-        <v>186</v>
-      </c>
-      <c r="B319" t="s">
-        <v>290</v>
-      </c>
-      <c r="C319" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
-        <v>193</v>
-      </c>
-      <c r="B320" t="s">
-        <v>290</v>
-      </c>
-      <c r="C320" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
-        <v>122</v>
-      </c>
-      <c r="B321" t="s">
-        <v>290</v>
-      </c>
-      <c r="C321" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
-        <v>185</v>
-      </c>
-      <c r="B322" t="s">
-        <v>290</v>
-      </c>
-      <c r="C322" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
-        <v>187</v>
-      </c>
-      <c r="B323" t="s">
-        <v>290</v>
-      </c>
-      <c r="C323" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
-        <v>190</v>
-      </c>
-      <c r="B324" t="s">
-        <v>290</v>
-      </c>
-      <c r="C324" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
-        <v>196</v>
-      </c>
-      <c r="B325" t="s">
-        <v>290</v>
-      </c>
-      <c r="C325" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
-        <v>197</v>
-      </c>
-      <c r="B326" t="s">
-        <v>290</v>
-      </c>
-      <c r="C326" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
-        <v>147</v>
-      </c>
-      <c r="B327" t="s">
-        <v>295</v>
-      </c>
-      <c r="C327" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
-        <v>146</v>
-      </c>
-      <c r="B328" t="s">
-        <v>295</v>
-      </c>
-      <c r="C328" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
-        <v>125</v>
-      </c>
-      <c r="B329" t="s">
-        <v>295</v>
-      </c>
-      <c r="C329" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
-        <v>110</v>
-      </c>
-      <c r="B330" t="s">
-        <v>295</v>
-      </c>
-      <c r="C330" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
-        <v>112</v>
-      </c>
-      <c r="B331" t="s">
-        <v>295</v>
-      </c>
-      <c r="C331" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
-        <v>113</v>
-      </c>
-      <c r="B332" t="s">
-        <v>295</v>
-      </c>
-      <c r="C332" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
-        <v>69</v>
-      </c>
-      <c r="B333" t="s">
-        <v>295</v>
-      </c>
-      <c r="C333" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
-        <v>232</v>
-      </c>
-      <c r="B334" t="s">
-        <v>295</v>
-      </c>
-      <c r="C334" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
-        <v>234</v>
-      </c>
-      <c r="B335" t="s">
-        <v>295</v>
-      </c>
-      <c r="C335" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
-        <v>10</v>
-      </c>
-      <c r="B336" t="s">
-        <v>295</v>
-      </c>
-      <c r="C336" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
-        <v>292</v>
-      </c>
-      <c r="B337" t="s">
-        <v>295</v>
-      </c>
-      <c r="C337" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
-        <v>77</v>
-      </c>
-      <c r="B338" t="s">
-        <v>295</v>
-      </c>
-      <c r="C338" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A339" t="s">
-        <v>233</v>
-      </c>
-      <c r="B339" t="s">
-        <v>295</v>
-      </c>
-      <c r="C339" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A340" t="s">
-        <v>78</v>
-      </c>
-      <c r="B340" t="s">
-        <v>295</v>
-      </c>
-      <c r="C340" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A341" t="s">
-        <v>293</v>
-      </c>
-      <c r="B341" t="s">
-        <v>295</v>
-      </c>
-      <c r="C341" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
-        <v>81</v>
-      </c>
-      <c r="B342" t="s">
-        <v>295</v>
-      </c>
-      <c r="C342" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
-        <v>236</v>
-      </c>
-      <c r="B343" t="s">
-        <v>295</v>
-      </c>
-      <c r="C343" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
-        <v>294</v>
-      </c>
-      <c r="B344" t="s">
-        <v>295</v>
-      </c>
-      <c r="C344" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
-        <v>291</v>
-      </c>
-      <c r="B345" t="s">
-        <v>295</v>
-      </c>
-      <c r="C345" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -6627,7 +6282,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B2">
         <v>703047</v>
@@ -6635,7 +6290,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B3">
         <v>640023</v>
@@ -6643,7 +6298,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B4">
         <v>477548</v>
@@ -6651,7 +6306,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B5">
         <v>220504</v>
@@ -6659,7 +6314,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B6">
         <v>87603</v>
@@ -6667,7 +6322,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B7">
         <v>63745</v>
@@ -6675,7 +6330,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>35591</v>
@@ -6683,7 +6338,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B9">
         <v>9875</v>
@@ -6691,7 +6346,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B10">
         <v>7754</v>
@@ -6707,7 +6362,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="B12">
         <v>6844</v>
@@ -6715,7 +6370,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13">
         <v>6066</v>
@@ -6723,7 +6378,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B14">
         <v>5019</v>
@@ -6731,7 +6386,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15">
         <v>3597</v>
@@ -6739,7 +6394,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="B16">
         <v>3451</v>
@@ -6747,7 +6402,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17">
         <v>2750</v>
@@ -6755,7 +6410,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B18">
         <v>2350</v>
@@ -6763,7 +6418,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="B19">
         <v>2319</v>
@@ -6771,7 +6426,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="B20">
         <v>2141</v>
